--- a/数据整理/stocks/A股/上证主板/603501-韦尔股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603501-韦尔股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -33196,4 +33197,9062 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H238"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>253.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>24.7504</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国天惠成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>398.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15.2813</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>169.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>14.0656</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>158.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>12.7638</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>164.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>12.1059</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>120.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>9.1051</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>8.9452</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005379</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富价值创造定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>112.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.6063</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>38.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.7994</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010420</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>民生加银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>64.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.0312</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>80.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.7579</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.6534</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>47.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.5116</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.4190</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001508</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.3762</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.3281</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>70.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.2976</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010437</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>66.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.0125</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>33.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.9672</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519018</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富均衡增长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>45.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.9165</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>51.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.8798</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.8198</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>45.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.4550</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>28.49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.4074</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.3882</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.3555</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002340</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>46.86</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.3355</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>28.51</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.3229</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011246</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>43.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.3169</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>26.59</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.2391</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003494</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国天惠成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>31.14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.1927</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501088</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实瑞虹三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.1239</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010361</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>36.48</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.1126</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>22.31</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.0620</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>41.64</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.9910</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011296</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.9701</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.9660</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>690007</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.9472</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005760</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国周期优势混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>44.87</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.9468</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009736</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>35.28</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.9173</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.9095</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>15.93</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.8523</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>73.31</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.8447</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.8116</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>470008</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>17.13</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.7760</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.7273</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>19.87</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.6875</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>16.23</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.6800</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>512650</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富中证长三角一体化发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>18.37</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>96.18</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.6356</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>501091</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实瑞熙三年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5817</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159997</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>天弘中证电子ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.5680</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.5676</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001510</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>75.09</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.5671</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银华科创主题 3 年封闭运作灵活配置混合型证券投资</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>18.98</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>64.72</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.5523</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>12.67</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>75.88</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.5359</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.5326</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007895</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实价值成长混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.5323</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010116</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.5094</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>161031</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富国中证工业4.0指数</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.4909</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>850588</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>70.70</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.4852</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.4846</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011498</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富国沪深300基本面精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.4845</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.4496</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.4364</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>040002</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华安MSCI中国A股指数增强</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>16.81</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.4320</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>516050</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>工银瑞信中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.4163</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011189</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>建信智汇优选一年持有期混合（MOM）</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>49.41</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3965</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009737</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>14.99</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.3897</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004934</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>圆信永丰消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.3885</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.3883</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011285</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>19.46</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>52.33</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.3873</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002064</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华富产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>79.68</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.3854</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>515260</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华宝中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.3798</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.3745</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.3736</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.3722</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159939</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>广发中证全指信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.3538</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.3363</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.3255</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.3220</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.3169</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2951</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2908</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2877</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008860</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>民生加银龙头优选股票</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2869</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2809</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.2722</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.2694</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.2677</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.2670</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>159807</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>易方达中证科技50ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.2597</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.2566</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001490</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.2555</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.2534</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.2448</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>550003</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中信保诚盛世蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.2428</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.2381</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.2278</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.2187</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006020</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>广发沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010438</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1927</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1870</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1826</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>160626</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>002419</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>82.32</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1808</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1805</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>50.28</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1805</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1699</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>80.47</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>515320</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华安中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>97.63</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1565</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>天治核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1544</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>004604</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>161025</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>富国中证移动互联网指数</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>007737</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>诺德中证研发创新100指数</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>512770</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华夏战略新兴成指ETF</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>011530</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>泓德优质治理灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>002562</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>泓德泓益量化混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>515920</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>博时中证智能消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>159720</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>泰康中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>98.66</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.1170</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>富国产业升级混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>010072</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>65.70</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>006336</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>泓德量化精选混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>165512</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>信诚新机遇混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>007305</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>国联安新科技混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>28.69</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>516590</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>易方达中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>011247</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>011444</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>创金合信瑞裕混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>515200</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>申万菱信中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>002649</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>民生加银智造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>690009</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>民生加银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>73.97</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>010878</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>诺德优势产业混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>28.98</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>010117</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>001816</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>005351</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>159710</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>建信中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>96.03</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>011277</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>上银科技驱动双周定期可赎回混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>011144</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>006021</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>广发沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>011499</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>富国沪深300基本面精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>003803</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>32.89</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>010362</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>516380</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>华宝中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>28.08</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>517350</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>广发中证沪港深科技龙头交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>850005</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>70.70</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>72.08</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>28.08</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>011536</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>75.88</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>159987</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>银华中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>96.93</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>850599</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>70.70</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>004560</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>002789</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>160636</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>鹏华中证移动互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>001359</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>004605</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>011145</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>011286</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>52.33</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>011297</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>001709</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>华富物联世界灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>002164</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>011537</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>501039</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>29.65</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>001654</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>010073</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>65.70</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>501040</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>29.65</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>003804</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>32.89</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>004576</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>新华恒益量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>009720</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>28.69</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H235" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>002790</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>004561</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
+        <v>0</v>
+      </c>
+      <c r="H237" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>011445</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>创金合信瑞裕混合C</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G238" t="n">
+        <v>0</v>
+      </c>
+      <c r="H238" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603501-韦尔股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603501-韦尔股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -42255,4 +42256,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>237</v>
+      </c>
+      <c r="D2" t="n">
+        <v>191.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>392</v>
+      </c>
+      <c r="D3" t="n">
+        <v>294.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>306</v>
+      </c>
+      <c r="D4" t="n">
+        <v>226.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>160</v>
+      </c>
+      <c r="D5" t="n">
+        <v>165.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603501-韦尔股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603501-韦尔股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -70220,7 +70221,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70231,17 +70232,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -70251,14 +70272,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>288</v>
-      </c>
-      <c r="D2" t="n">
-        <v>177.47</v>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>266.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>26.3696</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -70267,14 +70310,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>445</v>
-      </c>
-      <c r="D3" t="n">
-        <v>317.67</v>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>194.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>14.9977</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -70283,14 +70348,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>237</v>
-      </c>
-      <c r="D4" t="n">
-        <v>191.53</v>
+          <t>161005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国天惠成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>370.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11.7841</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -70299,14 +70386,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>392</v>
-      </c>
-      <c r="D5" t="n">
-        <v>294.28</v>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>125.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8.3346</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -70315,14 +70424,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>306</v>
-      </c>
-      <c r="D6" t="n">
-        <v>226.94</v>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>109.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7.6727</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -70331,13 +70462,8045 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>166.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6.7623</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012406</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>永赢长远价值混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>59.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.5725</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>35.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1152</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>71.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0480</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7836</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>44.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.7286</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519066</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>70.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6497</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010420</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>43.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5244</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.4665</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515000</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3739</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>34.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2988</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2863</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.2400</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1414</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009566</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇安泓阳三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9638</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>690007</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9358</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006252</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9139</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>25.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8661</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011296</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8585</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003494</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国天惠成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8551</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014528</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富MSCI中国A50互联互通ETF联接A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8357</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010143</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>交银施罗德启欣混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>31.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7618</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7203</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011285</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>15.60</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6958</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014143</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银河创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6869</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011122</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6715</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6093</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6051</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>15.88</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5717</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5505</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5192</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159939</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发中证全指信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>25.32</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5013</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4920</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002064</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华富产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4848</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014418</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4804</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>516640</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4617</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013840</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华集成电路混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4517</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4117</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519017</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>大成积极成长混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4094</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>12.36</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3930</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159997</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘中证电子ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>12.46</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3925</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3746</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3471</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010412</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇安均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3464</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012556</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长盛景气优选混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3462</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>161031</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国中证工业4.0指数</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3268</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010116</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3119</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3116</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004934</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>圆信永丰消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3081</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006253</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3029</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012650</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2969</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012407</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>永赢长远价值混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2904</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012913</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2860</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2858</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2768</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2653</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008860</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>民生加银龙头优选股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2642</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>560800</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏扬中证数字经济主题ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2558</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014950</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇安润阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2515</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2324</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2291</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>168103</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>九泰锐益定增灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>95.28</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2288</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014419</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2278</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2247</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>516050</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>工银瑞信中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2183</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>515260</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华宝中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2118</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>168601</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>汇安裕阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2084</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>014325</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2077</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2068</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2019</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1944</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1932</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1870</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1793</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>013445</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010072</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1558</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>580002</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005634</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>汇安行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1304</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011093</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>永赢宏泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>15.90</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>49.72</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>012651</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001188</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>鹏华改革红利股票</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>160626</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>161025</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>富国中证移动互联网指数</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>515320</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华安中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>013446</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>013292</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>000587</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>大成灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>98.17</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>515920</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>博时中证智能消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>012319</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>002649</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>民生加银智造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>007305</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>国联安新科技混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>014193</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>013841</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>银华集成电路混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>516590</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>易方达中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>005351</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>015191</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合D</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>25.20</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>690009</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>民生加银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>26.63</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>011839</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>562950</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>易方达中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>001682</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>新华鑫回报混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>24.86</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>090009</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>大成行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>002434</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>30.30</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>012320</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>003966</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>31.59</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>012914</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>007806</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>010117</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>002261</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>31.89</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>014951</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>汇安润阳三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>011840</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>011123</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>517800</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>方正富邦中证沪港深人工智能50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>015097</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>014416</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>泰康研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>011286</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>003967</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>31.59</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>014194</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>007807</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>002614</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>002435</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>30.30</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>014326</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>014417</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>泰康研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>015096</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>159733</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>景顺中证消费电子ETF</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>31.89</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>015337</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>561600</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>平安中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>160636</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>鹏华中证移动互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>001709</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>华富物联世界灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>000273</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>华润元大安鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>75.27</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>011297</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>010073</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>007632</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>华润元大安鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>75.27</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>015336</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>015115</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票D</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>012919</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>006270</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>014581</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>009720</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>012040</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>006271</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>003026</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>安信新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>015114</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>003027</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>安信新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>014172</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>富国中证工业4.0指数C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>014173</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>富国中证移动互联网指数C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>013516</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合E</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>74.16</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>011241</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>013515</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>74.16</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>213</v>
+      </c>
+      <c r="D2" t="n">
+        <v>130.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>288</v>
+      </c>
+      <c r="D3" t="n">
+        <v>177.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>445</v>
+      </c>
+      <c r="D4" t="n">
+        <v>317.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>237</v>
+      </c>
+      <c r="D5" t="n">
+        <v>191.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>392</v>
+      </c>
+      <c r="D6" t="n">
+        <v>294.28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>306</v>
+      </c>
+      <c r="D7" t="n">
+        <v>226.94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>160</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>165.61</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603501-韦尔股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603501-韦尔股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>213</v>
+        <v>101</v>
       </c>
       <c r="D2" t="n">
-        <v>130.06</v>
+        <v>52.89</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>288</v>
+        <v>213</v>
       </c>
       <c r="D3" t="n">
-        <v>177.47</v>
+        <v>130.06</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>445</v>
+        <v>288</v>
       </c>
       <c r="D4" t="n">
-        <v>317.67</v>
+        <v>177.47</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>237</v>
+        <v>445</v>
       </c>
       <c r="D5" t="n">
-        <v>191.53</v>
+        <v>317.67</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>392</v>
+        <v>237</v>
       </c>
       <c r="D6" t="n">
-        <v>294.28</v>
+        <v>191.53</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>306</v>
+        <v>392</v>
       </c>
       <c r="D7" t="n">
-        <v>226.94</v>
+        <v>294.28</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>306</v>
+      </c>
+      <c r="D8" t="n">
+        <v>226.94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>160</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>165.61</v>
       </c>
     </row>
@@ -600,6 +617,3896 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>239.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15.5650</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>177.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.9814</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安半导体ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>122.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.6887</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>112.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.8628</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2132</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1192</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0710</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0610</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515000</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>31.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8866</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8798</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4025</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4011</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>516640</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3889</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3168</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012913</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2981</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2860</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159939</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发中证全指信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2716</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010072</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2701</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159997</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘中证电子ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2620</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1935</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1786</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>560800</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏扬中证数字经济主题ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1761</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>517850</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深张江自主创新50ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1641</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013078</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>方正富邦策略轮动混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>76.64</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1587</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515260</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>168103</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>九泰锐益灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>516050</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014325</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>580002</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>561100</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013292</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>516350</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>160626</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013446</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>515320</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159732</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏国证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014376</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东吴新能源汽车股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013445</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012914</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>77.14</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>97.21</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>561310</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国泰中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014193</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015337</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>159795</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇添富中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011840</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>562950</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>易方达中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159779</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012320</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014194</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>561600</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>平安中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>96.30</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>517800</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>方正富邦中证沪港深AI50ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014377</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东吴新能源汽车股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159769</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>银华中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>159733</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>景顺中证消费电子ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>014326</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>012319</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010073</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>013079</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>方正富邦策略轮动混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>76.64</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005848</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>银华裕利混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>54.25</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011839</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>015336</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>012919</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>60.25</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>012040</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>60.25</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011241</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>016398</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>九泰锐益灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8745,7 +12652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19741,7 +23648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -36699,7 +40606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -45757,7 +49664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -60703,7 +64610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -72373,7 +76280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
